--- a/data/trans_dic/P12B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12B-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que convive con personas que requieren cuidados especiales (incluyéndose a sí mismo)</t>
+          <t>Población que convive con personas que requieren cuidados especiales (incluyéndose a sí mismo) (tasa de respuesta: 99,06%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>9,92%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>6,94%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,86%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>7,49%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>3,46%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>3,64%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>4,69%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>3,45%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7,37%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>7,2%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>6,17%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 9,84</t>
+          <t>1,51; 8,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 10,3</t>
+          <t>2,57; 9,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 12,93</t>
+          <t>2,72; 12,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 13,26</t>
+          <t>4,77; 17,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,46</t>
+          <t>2,83; 12,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,47</t>
+          <t>3,89; 16,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 6,64</t>
+          <t>0,63; 5,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 14,37</t>
+          <t>0,46; 4,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 6,52</t>
+          <t>1,42; 6,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,08</t>
+          <t>2,25; 9,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,49; 7,93</t>
+          <t>3,42; 15,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,02; 11,58</t>
+          <t>0,93; 8,04</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 6,49</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,02; 6,19</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 7,95</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>4,34; 11,88</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>3,65; 11,73</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>3,04; 10,73</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>12,01%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>4,98%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,17%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>3,11%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4,09%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,83%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>5,0%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4,42%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>5,04%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>3,71%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>11,66%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,54%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3,88%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>10,07%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>4,99%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>9,52%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 11,44</t>
+          <t>3,63; 11,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 15,09</t>
+          <t>3,66; 16,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,46</t>
+          <t>1,58; 7,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 10,67</t>
+          <t>5,01; 27,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,24</t>
+          <t>1,66; 11,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,92</t>
+          <t>3,15; 14,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 7,74</t>
+          <t>0,54; 5,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 9,53</t>
+          <t>1,31; 6,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,75</t>
+          <t>2,02; 7,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 9,07</t>
+          <t>4,53; 13,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,06</t>
+          <t>2,53; 9,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 8,42</t>
+          <t>7,31; 18,11</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 7,27</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,03; 10,99</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>2,28; 6,14</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>6,14; 18,71</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 8,48</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>6,18; 14,27</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>6,97%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7,98%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>6,04%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10,4%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>5,81%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5,39%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>6,23%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>6,66%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>7,21%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5,75%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>6,35%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>8,55%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>8,09%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 12,65</t>
+          <t>1,46; 15,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 12,54</t>
+          <t>2,14; 12,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 17,75</t>
+          <t>3,2; 15,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 10,5</t>
+          <t>3,67; 10,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,43; 10,02</t>
+          <t>2,32; 10,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 10,77</t>
+          <t>5,01; 18,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 8,91</t>
+          <t>4,57; 10,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 9,74</t>
+          <t>5,65; 11,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 9,21</t>
+          <t>4,11; 8,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 9,24</t>
+          <t>7,42; 15,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 12,64</t>
+          <t>3,56; 9,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 8,35</t>
+          <t>4,16; 11,51</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3,65; 9,96</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4,56; 9,89</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>4,48; 11,14</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,45; 11,44</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>3,44; 8,46</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 13,02</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>10,28%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>17,81%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>9,52%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>10,39%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8,84%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9,14%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>10,91%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>12,82%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>11,97%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 11,35</t>
+          <t>4,94; 11,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 12,16</t>
+          <t>4,79; 10,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,56; 12,12</t>
+          <t>5,49; 11,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,82; 24,52</t>
+          <t>6,74; 14,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,56; 13,33</t>
+          <t>12,62; 24,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 12,96</t>
+          <t>8,9; 20,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,46; 13,68</t>
+          <t>6,62; 13,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,27; 11,53</t>
+          <t>6,23; 12,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 10,98</t>
+          <t>7,52; 13,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,45; 11,11</t>
+          <t>8,13; 16,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 11,82</t>
+          <t>4,11; 11,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,71; 16,67</t>
+          <t>6,95; 14,85</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>6,77; 11,45</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>6,41; 10,59</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>7,08; 11,56</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>8,39; 14,09</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>9,79; 17,25</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>8,96; 16,0</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>9,33%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>13,16%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>10,65%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>11,3%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11,98%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>14,69%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>8,64%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>8,31%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>10,02%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>14,26%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>8,94%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>10,28%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>9,94%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>13,96%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>13,81%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,77; 10,64</t>
+          <t>4,12; 11,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,72</t>
+          <t>3,57; 9,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,13; 11,6</t>
+          <t>5,21; 12,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,7; 19,04</t>
+          <t>5,65; 14,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,91; 15,19</t>
+          <t>8,5; 19,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,52; 14,85</t>
+          <t>8,88; 19,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,34; 16,23</t>
+          <t>7,58; 15,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,04; 19,45</t>
+          <t>7,7; 15,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,27; 11,47</t>
+          <t>8,21; 16,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,28; 11,11</t>
+          <t>6,11; 16,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,53; 13,06</t>
+          <t>9,91; 19,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,41; 17,58</t>
+          <t>9,77; 19,29</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6,59; 12,21</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>6,46; 11,33</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>7,74; 13,09</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>7,27; 13,43</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>10,23; 17,62</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>10,47; 17,69</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>23,9%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>23,96%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>16,27%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>22,33%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>20,72%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>20,33%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>18,47%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>21,83%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>19,65%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,65; 32,86</t>
+          <t>14,75; 31,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,73; 26,25</t>
+          <t>13,44; 26,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,78; 21,74</t>
+          <t>10,85; 21,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,19; 27,55</t>
+          <t>8,42; 21,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,73; 29,01</t>
+          <t>12,3; 26,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,1; 27,76</t>
+          <t>17,68; 33,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,45; 29,78</t>
+          <t>17,37; 30,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,34; 32,87</t>
+          <t>17,12; 27,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,3; 27,34</t>
+          <t>18,3; 31,23</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,17; 25,32</t>
+          <t>14,36; 32,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,82; 24,44</t>
+          <t>16,41; 33,15</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,86; 27,99</t>
+          <t>10,85; 24,3</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>17,54; 28,25</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>16,77; 24,84</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>16,1; 25,24</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>13,68; 24,97</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>16,15; 28,2</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>14,78; 25,23</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>10,28%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>11,12%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>9,6%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>9,78%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>10,38%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11,89%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>11,38%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>9,0%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>8,92%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>9,21%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>11,02%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>9,26%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>9,23%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>11,1%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>11,25%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>11,82%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,46; 11,01</t>
+          <t>6,79; 11,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,45; 10,23</t>
+          <t>6,66; 10,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,41</t>
+          <t>6,41; 9,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,23; 13,31</t>
+          <t>8,36; 13,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,05; 11,46</t>
+          <t>9,05; 13,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,28; 11,35</t>
+          <t>10,27; 15,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,86; 11,98</t>
+          <t>8,31; 11,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,12; 13,71</t>
+          <t>8,29; 11,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,87; 10,64</t>
+          <t>8,77; 12,2</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,85; 10,25</t>
+          <t>9,84; 14,38</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,07; 10,69</t>
+          <t>9,21; 13,72</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,72; 12,95</t>
+          <t>8,92; 13,5</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>8,02; 11,0</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>7,94; 10,42</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>8,12; 10,57</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>9,56; 13,08</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>9,7; 13,0</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>10,27; 13,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que convive con personas que requieren cuidados especiales (incluyéndose a sí mismo) (tasa de respuesta: 99,06%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22478</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>28914</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>31145</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>45349</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2918</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3353</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11465</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9669</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17392</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22578</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2802</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1193</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>33943</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>38583</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>48537</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>67927</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>4546</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7596; 44851</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13470; 51829</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13874; 65966</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21806; 81245</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1192; 5340</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1520; 6365</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2951; 26926</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2387; 22789</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7275; 32680</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10450; 45076</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1280; 5898</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>323; 2775</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>16957; 62781</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>20995; 64279</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>27871; 81461</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>40042; 109499</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>2899; 9325</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>2241; 7904</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>37829</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>43509</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21756</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>68082</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2482</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3245</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11156</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15786</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>21080</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>38589</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2361</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4549</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>48985</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>59295</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>42837</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>106672</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>4844</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>7794</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>20677; 65330</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20600; 95635</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9294; 41486</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>28375; 157193</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>830; 5660</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1349; 6085</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2825; 27160</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6638; 30777</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10404; 40132</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>22318; 65337</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1195; 4289</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2853; 7065</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>29638; 79120</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>32481; 117687</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>25171; 67765</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>65026; 198263</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2656; 8236</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>5065; 11691</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>30767</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>32207</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>45218</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>43843</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3050</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4877</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>49479</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>57169</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>43132</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>71425</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3134</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3334</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>80246</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>89376</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>88349</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>115268</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>6185</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>8211</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10044; 103502</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14556; 87676</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21695; 102882</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>24219; 68294</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1400; 6174</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2765; 10104</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>32428; 73341</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>40440; 83015</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29339; 63374</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>50954; 104903</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1919; 4953</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1922; 5319</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>51020; 139127</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>63705; 138137</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>62309; 155074</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>86944; 154254</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>3925; 9659</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>5407; 13201</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>51018</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>47707</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>52438</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>67168</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10378</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6718</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>66842</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>60398</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>66132</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>75317</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3789</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5150</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>117860</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>108105</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>118570</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>142485</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>14167</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>11867</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>31974; 74946</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>30948; 68640</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>35023; 73548</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>44016; 94990</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7353; 14151</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4411; 10011</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>45421; 91930</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>41857; 86542</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>49612; 89662</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>53098; 106735</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2148; 5967</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3444; 7360</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>90294; 152560</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>84475; 139599</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>91833; 149900</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>109529; 184058</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>10817; 19058</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>8878; 15860</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>33899</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>29603</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>41860</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>44964</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5855</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5522</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>55747</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>56865</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>61508</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>53619</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7164</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6159</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>89646</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>86467</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>103368</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>98583</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>13019</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>11681</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>20397; 54947</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17944; 49078</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>25621; 59070</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>27206; 68371</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3783; 8520</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3676; 8055</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>38448; 80499</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>38760; 79255</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>42131; 84467</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>31155; 83152</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4833; 9691</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4220; 8330</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>66031; 122378</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>64985; 113853</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>77822; 131629</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>72101; 133220</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>9540; 16429</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>8856; 14956</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>117878</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>100653</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>82785</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>77985</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8867</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>10599</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>164155</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>152998</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>165577</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>157247</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>15265</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>9417</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>282033</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>253651</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>248362</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>235233</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>24133</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>20015</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>80430; 173140</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>71116; 138146</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>57410; 113356</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>47053; 117740</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5763; 12382</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>7777; 14835</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>124689; 216488</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>118992; 192841</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>126724; 216296</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>102653; 230574</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>10459; 21126</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6281; 14065</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>221523; 356817</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>205216; 304083</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>196745; 308388</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>174273; 318021</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>17851; 31174</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>15053; 25704</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>293870</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>282592</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>275202</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>347391</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>33552</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>34314</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>358844</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>352885</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>374822</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>418776</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>34516</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>29800</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>652714</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>635478</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>650024</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>766167</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>68067</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>64115</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>234065; 382140</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>229289; 356098</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>220008; 340810</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>282487; 464787</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>27313; 40503</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>27961; 41870</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>299428; 432283</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>299054; 407342</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>316513; 440415</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>346513; 506435</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>27930; 41608</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>24104; 36492</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>565677; 775865</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>559746; 735283</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>571981; 744386</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>659965; 902350</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>58691; 78644</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>55736; 74647</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
